--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem4/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem4/67/word_level_predictions_67.xlsx
@@ -1438,416 +1438,416 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" t="n">
         <v>2</v>
       </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" t="n">
         <v>0</v>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" t="n">
         <v>2</v>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" t="n">
         <v>2</v>
       </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>returning</t>
         </is>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" t="n">
         <v>2</v>
       </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G22" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" t="n">
         <v>2</v>
       </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" t="n">
         <v>3</v>
       </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G23" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" t="n">
         <v>2</v>
       </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" t="n">
         <v>4</v>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="A25" t="n">
         <v>2</v>
       </c>
-      <c r="B25" s="2" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" t="n">
         <v>5</v>
       </c>
-      <c r="E25" s="2" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G25" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" t="n">
         <v>2</v>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" t="n">
         <v>6</v>
       </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" t="n">
         <v>2</v>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Minimum</t>
         </is>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="D27" t="n">
         <v>7</v>
       </c>
-      <c r="E27" s="2" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G27" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2" t="inlineStr">
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2894,210 +2894,210 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E48" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="inlineStr">
+      <c r="D49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>installed</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>installed</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>2</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>properly</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>properly</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>3</v>
-      </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G131" t="b">
@@ -7257,57 +7257,57 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
+      <c r="A132" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B132" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C132" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D132" t="n">
+      <c r="D132" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="E132" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="F132" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G132" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I132" t="b">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K132" t="b">
-        <v>1</v>
-      </c>
-      <c r="L132" t="inlineStr">
+      <c r="G132" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J132" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9706,262 +9706,262 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="n">
+      <c r="A179" t="n">
         <v>11</v>
       </c>
-      <c r="B179" s="2" t="inlineStr">
+      <c r="B179" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C179" s="2" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>Positioning</t>
         </is>
       </c>
-      <c r="D179" s="2" t="n">
+      <c r="D179" t="n">
         <v>3</v>
       </c>
-      <c r="E179" s="2" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F179" s="2" t="inlineStr">
+      <c r="F179" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G179" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L179" s="2" t="inlineStr">
+      <c r="G179" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" t="b">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K179" t="b">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="n">
+      <c r="A180" t="n">
         <v>11</v>
       </c>
-      <c r="B180" s="2" t="inlineStr">
+      <c r="B180" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C180" s="2" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>accuracy</t>
         </is>
       </c>
-      <c r="D180" s="2" t="n">
+      <c r="D180" t="n">
         <v>4</v>
       </c>
-      <c r="E180" s="2" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F180" s="2" t="inlineStr">
+      <c r="F180" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G180" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L180" s="2" t="inlineStr">
+      <c r="G180" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" t="b">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="n">
+      <c r="A181" t="n">
         <v>11</v>
       </c>
-      <c r="B181" s="2" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C181" s="2" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D181" s="2" t="n">
+      <c r="D181" t="n">
         <v>5</v>
       </c>
-      <c r="E181" s="2" t="inlineStr">
+      <c r="E181" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F181" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G181" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L181" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" t="b">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n">
+      <c r="A182" t="n">
         <v>11</v>
       </c>
-      <c r="B182" s="2" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C182" s="2" t="inlineStr">
+      <c r="C182" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D182" s="2" t="n">
+      <c r="D182" t="n">
         <v>6</v>
       </c>
-      <c r="E182" s="2" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F182" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G182" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L182" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" t="b">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K182" t="b">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n">
+      <c r="A183" t="n">
         <v>11</v>
       </c>
-      <c r="B183" s="2" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C183" s="2" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>compromised</t>
         </is>
       </c>
-      <c r="D183" s="2" t="n">
+      <c r="D183" t="n">
         <v>7</v>
       </c>
-      <c r="E183" s="2" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F183" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G183" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L183" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G183" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K183" t="b">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem4/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem4/67/word_level_predictions_67.xlsx
@@ -1438,416 +1438,416 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="G20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="inlineStr">
+      <c r="D21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="G21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>returning</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K22" t="b">
-        <v>1</v>
-      </c>
-      <c r="L22" t="inlineStr">
+      <c r="G22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="G23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K24" t="b">
-        <v>1</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="G24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" s="2" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K25" t="b">
-        <v>1</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="G25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>Minimum</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E27" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="G27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -2894,210 +2894,210 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" t="n">
         <v>3</v>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" t="n">
         <v>0</v>
       </c>
-      <c r="E48" s="2" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" t="n">
         <v>3</v>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" t="n">
         <v>3</v>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>installed</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" t="n">
         <v>2</v>
       </c>
-      <c r="E50" s="2" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" t="n">
         <v>3</v>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>properly</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" t="n">
         <v>3</v>
       </c>
-      <c r="E51" s="2" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7233,81 +7233,81 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G131" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>9</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>3</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G131" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I131" t="b">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K131" t="b">
-        <v>1</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B132" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C132" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D132" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E132" s="2" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F132" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G132" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L132" s="2" t="inlineStr">
+      <c r="G132" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I132" t="b">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9706,262 +9706,262 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
+      <c r="A179" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B179" s="2" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="C179" s="2" t="inlineStr">
         <is>
           <t>Positioning</t>
         </is>
       </c>
-      <c r="D179" t="n">
+      <c r="D179" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E179" t="inlineStr">
+      <c r="E179" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="F179" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G179" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" t="b">
-        <v>1</v>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K179" t="b">
-        <v>1</v>
-      </c>
-      <c r="L179" t="inlineStr">
+      <c r="G179" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J179" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L179" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
+      <c r="A180" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B180" s="2" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C180" s="2" t="inlineStr">
         <is>
           <t>accuracy</t>
         </is>
       </c>
-      <c r="D180" t="n">
+      <c r="D180" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="E180" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="F180" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G180" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" t="b">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K180" t="b">
-        <v>1</v>
-      </c>
-      <c r="L180" t="inlineStr">
+      <c r="G180" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
+      <c r="A181" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B181" s="2" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="C181" s="2" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D181" t="n">
+      <c r="D181" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E181" t="inlineStr">
+      <c r="E181" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="F181" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G181" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B182" s="2" t="inlineStr">
+        <is>
+          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
+        </is>
+      </c>
+      <c r="C182" s="2" t="inlineStr">
+        <is>
+          <t>be</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E182" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G181" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" t="b">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K181" t="b">
-        <v>1</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
+      <c r="F182" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G182" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J182" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L182" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B183" s="2" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>be</t>
-        </is>
-      </c>
-      <c r="D182" t="n">
-        <v>6</v>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" t="b">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K182" t="b">
-        <v>1</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>11</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
+      <c r="C183" s="2" t="inlineStr">
         <is>
           <t>compromised</t>
         </is>
       </c>
-      <c r="D183" t="n">
+      <c r="D183" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E183" t="inlineStr">
+      <c r="E183" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" t="b">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K183" t="b">
-        <v>1</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F183" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G183" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J183" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L183" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
